--- a/Source/server/src/templates/GradeBoardTemplate.xlsx
+++ b/Source/server/src/templates/GradeBoardTemplate.xlsx
@@ -22,7 +22,7 @@
     <t>Assignment ID:</t>
   </si>
   <si>
-    <t>8</t>
+    <t>32</t>
   </si>
   <si>
     <t>Assignment Name:</t>
